--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-age-extension.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-age-extension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -361,7 +361,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-age-1:All Patients aged more than 89 years, should be grouped together as 90+ years to meet de-identification requirements. {(($this.where(code = 'a').value &lt;= 89) or ($this.where(code = 'a' and comparator = '&gt;=').value = 90)) or (($this.where(code = 'mo').value &lt;= 1068) or ($this.where(code = 'mo' and value &gt; 1068 and value &lt;= 1080).comparator = '&gt;=')) or (($this.where(code = 'd').value &lt;= 32485) or ($this.where(code = 'd' and value &gt; 32485 and value &lt;= 32850).comparator = '&gt;=')) or (($this.where(code = 'wk').value &lt; 4628) or ($this.where(code = 'wk' and value &gt; 4628 and value &lt;= 4680).comparator = '&gt;='))}</t>
+uds-plus-age-1:All Patients aged more than 89 years, should be grouped together as 90+ years to meet de-identification requirements. {(($this.where(code = 'a').value &lt;= 89) or ($this.where(code = 'a' and comparator = '&gt;=').value = 90)) or (($this.where(code = 'mo').value &lt;= 1068) or ($this.where(code = 'mo' and value &gt; 1068 and value &lt;= 1080).comparator = '&gt;=')) or (($this.where(code = 'd').value &lt;= 32485) or ($this.where(code = 'd' and value &gt; 32485 and value &lt;= 32850).comparator = '&gt;=')) or (($this.where(code = 'wk').value &lt; 4628) or ($this.where(code = 'wk' and value &gt; 4628 and value &lt;= 4680).comparator = '&gt;='))}uds-plus-age-2:All Patients should be aged 0 or more years. {($this.value &gt;= 0)}</t>
   </si>
 </sst>
 </file>
